--- a/time-comparison.xlsx
+++ b/time-comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\independent-study\AWS-Lambda\09-20\serverless\compare-Serverless-Technologies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\independent-study\AWS-Lambda\09-20\serverless\new-repo\Serverless-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Lambda-Dynamodb</t>
   </si>
@@ -842,6 +842,9 @@
   <si>
     <t>IBM Cloudant</t>
   </si>
+  <si>
+    <t xml:space="preserve">has </t>
+  </si>
 </sst>
 </file>
 
@@ -1280,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L80" sqref="L80:L85"/>
     </sheetView>
   </sheetViews>
@@ -3637,7 +3640,9 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
